--- a/Support Files/Tratamiento a Variables.xlsx
+++ b/Support Files/Tratamiento a Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BEA88C-B15C-4677-AF15-591ACB9B1068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E8705-C581-42F1-B13E-02C4C1CC8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>puntaje_moca</t>
   </si>
   <si>
-    <t>Quizás transformar a estacion, si no, excluir</t>
-  </si>
-  <si>
     <t>f_inclusion</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
   </si>
   <si>
     <t>observaciones_hc</t>
-  </si>
-  <si>
-    <t>CONTAR EL NUMERO DE MEDICINAS QUE USA</t>
   </si>
   <si>
     <t>fecha_visita</t>
@@ -2099,13 +2093,33 @@
   </si>
   <si>
     <t>NOTA: albumina_orina SE REPITE, EN NUMERO Y EN CATEGORICO</t>
+  </si>
+  <si>
+    <t>No se pondrá en el YAML, pues se sobreescribirá.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONTAR EL NUMERO DE MEDICINAS QUE USA
+COLUMNA NUEVA: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'total_meds'</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2134,6 +2148,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2155,7 +2177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2183,6 +2205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2530,10 +2555,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2545,8 +2570,8 @@
         <v>- frec_alcohol_audit</v>
       </c>
       <c r="E2">
-        <f>COUNTA(C2:C42)+COUNTA('Rellenar con más cercano'!C2:C411)+COUNTA('Eliminar Variable'!C2:C145)+COUNTA(Especial!D2:D44)+COUNTA('Categoricas Temporales'!C2:C41)+COUNTA(OBJETIVOS!D2:D8)</f>
-        <v>685</v>
+        <f>COUNTA(C2:C42)+COUNTA('Rellenar con más cercano'!C2:C411)+COUNTA('Eliminar Variable'!C3:C146)+COUNTA(Especial!D2:D43)+COUNTA('Categoricas Temporales'!C2:C41)+COUNTA(OBJETIVOS!D2:D8)</f>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2587,7 +2612,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2596,7 +2621,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2605,7 +2630,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2614,7 +2639,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2623,7 +2648,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2632,7 +2657,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2641,7 +2666,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2650,7 +2675,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2659,7 +2684,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2668,7 +2693,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2677,7 +2702,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2686,7 +2711,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2695,7 +2720,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2704,7 +2729,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2713,7 +2738,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2722,7 +2747,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2731,7 +2756,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2740,7 +2765,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2749,7 +2774,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2758,7 +2783,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2767,7 +2792,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2776,7 +2801,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2810,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2794,7 +2819,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2803,7 +2828,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2812,7 +2837,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2821,7 +2846,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2830,7 +2855,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2839,7 +2864,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2848,7 +2873,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2857,7 +2882,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2866,7 +2891,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2875,7 +2900,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2884,7 +2909,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2893,7 +2918,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2902,7 +2927,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2930,42 +2955,42 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>"- "&amp;A2</f>
         <v>- pcr</v>
       </c>
       <c r="E2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C66" si="0">"- "&amp;A3</f>
         <v>- glucosa</v>
       </c>
       <c r="E3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2974,7 +2999,7 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2983,7 +3008,7 @@
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2992,7 +3017,7 @@
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3001,7 +3026,7 @@
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3010,7 +3035,7 @@
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3019,7 +3044,7 @@
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3028,7 +3053,7 @@
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3037,7 +3062,7 @@
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3046,7 +3071,7 @@
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3055,7 +3080,7 @@
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3064,7 +3089,7 @@
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3073,7 +3098,7 @@
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3082,7 +3107,7 @@
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3091,7 +3116,7 @@
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3100,7 +3125,7 @@
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3109,7 +3134,7 @@
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3118,7 +3143,7 @@
     </row>
     <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3127,7 +3152,7 @@
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3136,7 +3161,7 @@
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3145,7 +3170,7 @@
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3154,7 +3179,7 @@
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3163,7 +3188,7 @@
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3172,7 +3197,7 @@
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3181,7 +3206,7 @@
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3190,7 +3215,7 @@
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3199,7 +3224,7 @@
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3208,7 +3233,7 @@
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3217,7 +3242,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3226,7 +3251,7 @@
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3235,7 +3260,7 @@
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3244,7 +3269,7 @@
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3253,7 +3278,7 @@
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3262,7 +3287,7 @@
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3271,7 +3296,7 @@
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3280,7 +3305,7 @@
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3289,7 +3314,7 @@
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3298,7 +3323,7 @@
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3307,7 +3332,7 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3316,7 +3341,7 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3325,7 +3350,7 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3334,7 +3359,7 @@
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3343,7 +3368,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3352,7 +3377,7 @@
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3361,7 +3386,7 @@
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3370,7 +3395,7 @@
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3379,7 +3404,7 @@
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3388,7 +3413,7 @@
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3397,7 +3422,7 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3406,7 +3431,7 @@
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3415,7 +3440,7 @@
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3424,7 +3449,7 @@
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3433,7 +3458,7 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3442,7 +3467,7 @@
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3451,7 +3476,7 @@
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3460,7 +3485,7 @@
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3469,7 +3494,7 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3478,7 +3503,7 @@
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3487,7 +3512,7 @@
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3496,7 +3521,7 @@
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3505,7 +3530,7 @@
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3514,7 +3539,7 @@
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3523,7 +3548,7 @@
     </row>
     <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3532,7 +3557,7 @@
     </row>
     <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" ref="C67:C130" si="1">"- "&amp;A67</f>
@@ -3541,7 +3566,7 @@
     </row>
     <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3550,7 +3575,7 @@
     </row>
     <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3559,7 +3584,7 @@
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3568,7 +3593,7 @@
     </row>
     <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3577,7 +3602,7 @@
     </row>
     <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3586,7 +3611,7 @@
     </row>
     <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3595,7 +3620,7 @@
     </row>
     <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3604,7 +3629,7 @@
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3613,7 +3638,7 @@
     </row>
     <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3622,7 +3647,7 @@
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3631,7 +3656,7 @@
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3640,7 +3665,7 @@
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3649,7 +3674,7 @@
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3658,7 +3683,7 @@
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3667,7 +3692,7 @@
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3676,7 +3701,7 @@
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3685,7 +3710,7 @@
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3694,7 +3719,7 @@
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3703,7 +3728,7 @@
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3712,7 +3737,7 @@
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3721,7 +3746,7 @@
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3730,7 +3755,7 @@
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3739,7 +3764,7 @@
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3748,7 +3773,7 @@
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3757,7 +3782,7 @@
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C92" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3766,7 +3791,7 @@
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3775,7 +3800,7 @@
     </row>
     <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3784,7 +3809,7 @@
     </row>
     <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3793,7 +3818,7 @@
     </row>
     <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3802,7 +3827,7 @@
     </row>
     <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C97" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3811,7 +3836,7 @@
     </row>
     <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C98" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3820,7 +3845,7 @@
     </row>
     <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3829,7 +3854,7 @@
     </row>
     <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3838,7 +3863,7 @@
     </row>
     <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3847,7 +3872,7 @@
     </row>
     <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C102" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3856,7 +3881,7 @@
     </row>
     <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C103" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3865,7 +3890,7 @@
     </row>
     <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C104" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3874,7 +3899,7 @@
     </row>
     <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C105" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3883,7 +3908,7 @@
     </row>
     <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C106" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3892,7 +3917,7 @@
     </row>
     <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C107" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3901,7 +3926,7 @@
     </row>
     <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C108" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3910,7 +3935,7 @@
     </row>
     <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C109" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3919,7 +3944,7 @@
     </row>
     <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C110" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3928,7 +3953,7 @@
     </row>
     <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3937,7 +3962,7 @@
     </row>
     <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C112" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3955,7 +3980,7 @@
     </row>
     <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3973,7 +3998,7 @@
     </row>
     <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3982,7 +4007,7 @@
     </row>
     <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3991,7 +4016,7 @@
     </row>
     <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4000,7 +4025,7 @@
     </row>
     <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4009,7 +4034,7 @@
     </row>
     <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4018,7 +4043,7 @@
     </row>
     <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C121" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4027,7 +4052,7 @@
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C122" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4036,7 +4061,7 @@
     </row>
     <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C123" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4045,7 +4070,7 @@
     </row>
     <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C124" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4054,7 +4079,7 @@
     </row>
     <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C125" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4063,7 +4088,7 @@
     </row>
     <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C126" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4072,7 +4097,7 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C127" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4081,7 +4106,7 @@
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C128" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4090,7 +4115,7 @@
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C129" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4099,7 +4124,7 @@
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C130" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4108,7 +4133,7 @@
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C131" s="1" t="str">
         <f t="shared" ref="C131:C194" si="2">"- "&amp;A131</f>
@@ -4117,7 +4142,7 @@
     </row>
     <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C132" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4126,7 +4151,7 @@
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C133" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4135,7 +4160,7 @@
     </row>
     <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C134" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4144,7 +4169,7 @@
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C135" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4153,7 +4178,7 @@
     </row>
     <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C136" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4162,7 +4187,7 @@
     </row>
     <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C137" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4171,7 +4196,7 @@
     </row>
     <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C138" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4180,7 +4205,7 @@
     </row>
     <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C139" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4189,7 +4214,7 @@
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C140" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4198,7 +4223,7 @@
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C141" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4207,7 +4232,7 @@
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C142" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4216,7 +4241,7 @@
     </row>
     <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C143" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4225,7 +4250,7 @@
     </row>
     <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C144" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4234,7 +4259,7 @@
     </row>
     <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C145" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4243,7 +4268,7 @@
     </row>
     <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C146" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4252,7 +4277,7 @@
     </row>
     <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C147" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4261,7 +4286,7 @@
     </row>
     <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C148" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4270,7 +4295,7 @@
     </row>
     <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C149" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4279,7 +4304,7 @@
     </row>
     <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C150" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4288,7 +4313,7 @@
     </row>
     <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C151" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4297,7 +4322,7 @@
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C152" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4306,7 +4331,7 @@
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C153" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4315,7 +4340,7 @@
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C154" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4324,7 +4349,7 @@
     </row>
     <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C155" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4333,7 +4358,7 @@
     </row>
     <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C156" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4342,7 +4367,7 @@
     </row>
     <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C157" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4351,7 +4376,7 @@
     </row>
     <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C158" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4360,7 +4385,7 @@
     </row>
     <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C159" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4369,7 +4394,7 @@
     </row>
     <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C160" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4378,7 +4403,7 @@
     </row>
     <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4387,7 +4412,7 @@
     </row>
     <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C162" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4396,7 +4421,7 @@
     </row>
     <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C163" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4405,7 +4430,7 @@
     </row>
     <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C164" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4414,7 +4439,7 @@
     </row>
     <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C165" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4423,7 +4448,7 @@
     </row>
     <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C166" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4432,7 +4457,7 @@
     </row>
     <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C167" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4441,7 +4466,7 @@
     </row>
     <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C168" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4450,7 +4475,7 @@
     </row>
     <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C169" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4459,7 +4484,7 @@
     </row>
     <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C170" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4468,7 +4493,7 @@
     </row>
     <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C171" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4477,7 +4502,7 @@
     </row>
     <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C172" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4486,7 +4511,7 @@
     </row>
     <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C173" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4495,7 +4520,7 @@
     </row>
     <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C174" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4504,7 +4529,7 @@
     </row>
     <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C175" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4513,7 +4538,7 @@
     </row>
     <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C176" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4522,7 +4547,7 @@
     </row>
     <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C177" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4531,7 +4556,7 @@
     </row>
     <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C178" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4540,7 +4565,7 @@
     </row>
     <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C179" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4549,7 +4574,7 @@
     </row>
     <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C180" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4558,7 +4583,7 @@
     </row>
     <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C181" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4567,7 +4592,7 @@
     </row>
     <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C182" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4576,7 +4601,7 @@
     </row>
     <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C183" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4585,7 +4610,7 @@
     </row>
     <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C184" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4594,7 +4619,7 @@
     </row>
     <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C185" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4603,7 +4628,7 @@
     </row>
     <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C186" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4612,7 +4637,7 @@
     </row>
     <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C187" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4621,7 +4646,7 @@
     </row>
     <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C188" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4630,7 +4655,7 @@
     </row>
     <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C189" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4639,7 +4664,7 @@
     </row>
     <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C190" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4648,7 +4673,7 @@
     </row>
     <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C191" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4657,7 +4682,7 @@
     </row>
     <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C192" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4666,7 +4691,7 @@
     </row>
     <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C193" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4675,7 +4700,7 @@
     </row>
     <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C194" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4684,7 +4709,7 @@
     </row>
     <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C195" s="1" t="str">
         <f t="shared" ref="C195:C258" si="3">"- "&amp;A195</f>
@@ -4693,7 +4718,7 @@
     </row>
     <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C196" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4702,7 +4727,7 @@
     </row>
     <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C197" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4711,7 +4736,7 @@
     </row>
     <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C198" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4720,7 +4745,7 @@
     </row>
     <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C199" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4729,7 +4754,7 @@
     </row>
     <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C200" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4738,7 +4763,7 @@
     </row>
     <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C201" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4747,7 +4772,7 @@
     </row>
     <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C202" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4756,7 +4781,7 @@
     </row>
     <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C203" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4765,7 +4790,7 @@
     </row>
     <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C204" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4774,7 +4799,7 @@
     </row>
     <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C205" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4783,7 +4808,7 @@
     </row>
     <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C206" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4792,7 +4817,7 @@
     </row>
     <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C207" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4801,7 +4826,7 @@
     </row>
     <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C208" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4810,7 +4835,7 @@
     </row>
     <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C209" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4819,7 +4844,7 @@
     </row>
     <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C210" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4828,7 +4853,7 @@
     </row>
     <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C211" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4837,7 +4862,7 @@
     </row>
     <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C212" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4846,7 +4871,7 @@
     </row>
     <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C213" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4855,7 +4880,7 @@
     </row>
     <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C214" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4864,7 +4889,7 @@
     </row>
     <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C215" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4873,7 +4898,7 @@
     </row>
     <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C216" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4882,7 +4907,7 @@
     </row>
     <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C217" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4891,7 +4916,7 @@
     </row>
     <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C218" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4900,7 +4925,7 @@
     </row>
     <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C219" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4909,7 +4934,7 @@
     </row>
     <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C220" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4918,7 +4943,7 @@
     </row>
     <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C221" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4927,7 +4952,7 @@
     </row>
     <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C222" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4936,7 +4961,7 @@
     </row>
     <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C223" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4945,7 +4970,7 @@
     </row>
     <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C224" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4954,7 +4979,7 @@
     </row>
     <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C225" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4963,7 +4988,7 @@
     </row>
     <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C226" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4972,7 +4997,7 @@
     </row>
     <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C227" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4981,7 +5006,7 @@
     </row>
     <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C228" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4990,7 +5015,7 @@
     </row>
     <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4999,7 +5024,7 @@
     </row>
     <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C230" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5008,7 +5033,7 @@
     </row>
     <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C231" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5017,7 +5042,7 @@
     </row>
     <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C232" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5026,7 +5051,7 @@
     </row>
     <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C233" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5035,7 +5060,7 @@
     </row>
     <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C234" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5044,7 +5069,7 @@
     </row>
     <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C235" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5053,7 +5078,7 @@
     </row>
     <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C236" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5062,7 +5087,7 @@
     </row>
     <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C237" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5071,7 +5096,7 @@
     </row>
     <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C238" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5080,7 +5105,7 @@
     </row>
     <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C239" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5089,7 +5114,7 @@
     </row>
     <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C240" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5098,7 +5123,7 @@
     </row>
     <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C241" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5107,7 +5132,7 @@
     </row>
     <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C242" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5116,7 +5141,7 @@
     </row>
     <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C243" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5125,7 +5150,7 @@
     </row>
     <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C244" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5134,7 +5159,7 @@
     </row>
     <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C245" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5143,7 +5168,7 @@
     </row>
     <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C246" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5152,7 +5177,7 @@
     </row>
     <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C247" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5161,7 +5186,7 @@
     </row>
     <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C248" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5170,7 +5195,7 @@
     </row>
     <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C249" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5179,7 +5204,7 @@
     </row>
     <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C250" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5188,7 +5213,7 @@
     </row>
     <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C251" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5197,7 +5222,7 @@
     </row>
     <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C252" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5206,7 +5231,7 @@
     </row>
     <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C253" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5215,7 +5240,7 @@
     </row>
     <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C254" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5224,7 +5249,7 @@
     </row>
     <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C255" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5233,7 +5258,7 @@
     </row>
     <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C256" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5242,7 +5267,7 @@
     </row>
     <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5251,7 +5276,7 @@
     </row>
     <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C258" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5260,7 +5285,7 @@
     </row>
     <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C259" s="1" t="str">
         <f t="shared" ref="C259:C322" si="4">"- "&amp;A259</f>
@@ -5269,7 +5294,7 @@
     </row>
     <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C260" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5278,7 +5303,7 @@
     </row>
     <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C261" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5287,7 +5312,7 @@
     </row>
     <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C262" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5296,7 +5321,7 @@
     </row>
     <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C263" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5305,7 +5330,7 @@
     </row>
     <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C264" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5314,7 +5339,7 @@
     </row>
     <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C265" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5323,7 +5348,7 @@
     </row>
     <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C266" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5332,7 +5357,7 @@
     </row>
     <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C267" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5341,7 +5366,7 @@
     </row>
     <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C268" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5350,7 +5375,7 @@
     </row>
     <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C269" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5359,7 +5384,7 @@
     </row>
     <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C270" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5368,7 +5393,7 @@
     </row>
     <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C271" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5377,7 +5402,7 @@
     </row>
     <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C272" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5386,7 +5411,7 @@
     </row>
     <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C273" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5395,7 +5420,7 @@
     </row>
     <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C274" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5404,7 +5429,7 @@
     </row>
     <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C275" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5413,7 +5438,7 @@
     </row>
     <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C276" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5422,7 +5447,7 @@
     </row>
     <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C277" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5431,7 +5456,7 @@
     </row>
     <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C278" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5440,7 +5465,7 @@
     </row>
     <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C279" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5449,7 +5474,7 @@
     </row>
     <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C280" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5458,7 +5483,7 @@
     </row>
     <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C281" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5467,7 +5492,7 @@
     </row>
     <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C282" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5476,7 +5501,7 @@
     </row>
     <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C283" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5485,7 +5510,7 @@
     </row>
     <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C284" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5494,7 +5519,7 @@
     </row>
     <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C285" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5503,7 +5528,7 @@
     </row>
     <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C286" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5512,7 +5537,7 @@
     </row>
     <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C287" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5521,7 +5546,7 @@
     </row>
     <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C288" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5530,7 +5555,7 @@
     </row>
     <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C289" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5539,7 +5564,7 @@
     </row>
     <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C290" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5548,7 +5573,7 @@
     </row>
     <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C291" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5557,7 +5582,7 @@
     </row>
     <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C292" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5566,7 +5591,7 @@
     </row>
     <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C293" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5575,7 +5600,7 @@
     </row>
     <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C294" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5584,7 +5609,7 @@
     </row>
     <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C295" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5593,7 +5618,7 @@
     </row>
     <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C296" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5602,7 +5627,7 @@
     </row>
     <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C297" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5611,7 +5636,7 @@
     </row>
     <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C298" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5620,7 +5645,7 @@
     </row>
     <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C299" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5629,7 +5654,7 @@
     </row>
     <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C300" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5638,7 +5663,7 @@
     </row>
     <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C301" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5647,7 +5672,7 @@
     </row>
     <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C302" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5656,7 +5681,7 @@
     </row>
     <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C303" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5665,7 +5690,7 @@
     </row>
     <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C304" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5674,7 +5699,7 @@
     </row>
     <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C305" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5683,7 +5708,7 @@
     </row>
     <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C306" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5692,7 +5717,7 @@
     </row>
     <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C307" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5701,7 +5726,7 @@
     </row>
     <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C308" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5710,7 +5735,7 @@
     </row>
     <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C309" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5719,7 +5744,7 @@
     </row>
     <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C310" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5728,7 +5753,7 @@
     </row>
     <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C311" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5737,7 +5762,7 @@
     </row>
     <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C312" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5746,7 +5771,7 @@
     </row>
     <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C313" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5755,7 +5780,7 @@
     </row>
     <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C314" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5764,7 +5789,7 @@
     </row>
     <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C315" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5773,7 +5798,7 @@
     </row>
     <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C316" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5782,7 +5807,7 @@
     </row>
     <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C317" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5791,7 +5816,7 @@
     </row>
     <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C318" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5800,7 +5825,7 @@
     </row>
     <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C319" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5809,7 +5834,7 @@
     </row>
     <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C320" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5818,7 +5843,7 @@
     </row>
     <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C321" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5827,7 +5852,7 @@
     </row>
     <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C322" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5836,7 +5861,7 @@
     </row>
     <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C323" s="1" t="str">
         <f t="shared" ref="C323:C386" si="5">"- "&amp;A323</f>
@@ -5845,7 +5870,7 @@
     </row>
     <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C324" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5854,7 +5879,7 @@
     </row>
     <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C325" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5863,7 +5888,7 @@
     </row>
     <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C326" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5872,7 +5897,7 @@
     </row>
     <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C327" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5881,7 +5906,7 @@
     </row>
     <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C328" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5890,7 +5915,7 @@
     </row>
     <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C329" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5899,7 +5924,7 @@
     </row>
     <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C330" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5908,7 +5933,7 @@
     </row>
     <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C331" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5917,7 +5942,7 @@
     </row>
     <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C332" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5926,7 +5951,7 @@
     </row>
     <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C333" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5935,7 +5960,7 @@
     </row>
     <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C334" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5944,7 +5969,7 @@
     </row>
     <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C335" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5953,7 +5978,7 @@
     </row>
     <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C336" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5962,7 +5987,7 @@
     </row>
     <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C337" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5971,7 +5996,7 @@
     </row>
     <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C338" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5980,7 +6005,7 @@
     </row>
     <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C339" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5989,7 +6014,7 @@
     </row>
     <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C340" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5998,7 +6023,7 @@
     </row>
     <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C341" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6007,7 +6032,7 @@
     </row>
     <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C342" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6016,7 +6041,7 @@
     </row>
     <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C343" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6025,7 +6050,7 @@
     </row>
     <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C344" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6034,7 +6059,7 @@
     </row>
     <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C345" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6043,7 +6068,7 @@
     </row>
     <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C346" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6052,7 +6077,7 @@
     </row>
     <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C347" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6061,7 +6086,7 @@
     </row>
     <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C348" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6070,7 +6095,7 @@
     </row>
     <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C349" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6079,7 +6104,7 @@
     </row>
     <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C350" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6088,7 +6113,7 @@
     </row>
     <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C351" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6097,7 +6122,7 @@
     </row>
     <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C352" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6106,7 +6131,7 @@
     </row>
     <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C353" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6115,7 +6140,7 @@
     </row>
     <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C354" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6124,7 +6149,7 @@
     </row>
     <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C355" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6133,7 +6158,7 @@
     </row>
     <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C356" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6142,7 +6167,7 @@
     </row>
     <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C357" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6151,7 +6176,7 @@
     </row>
     <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C358" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6160,7 +6185,7 @@
     </row>
     <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C359" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6169,7 +6194,7 @@
     </row>
     <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C360" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6178,7 +6203,7 @@
     </row>
     <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C361" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6187,7 +6212,7 @@
     </row>
     <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C362" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6196,7 +6221,7 @@
     </row>
     <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C363" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6205,7 +6230,7 @@
     </row>
     <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C364" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6214,7 +6239,7 @@
     </row>
     <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C365" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6223,7 +6248,7 @@
     </row>
     <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C366" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6232,7 +6257,7 @@
     </row>
     <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C367" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6241,7 +6266,7 @@
     </row>
     <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C368" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6250,7 +6275,7 @@
     </row>
     <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C369" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6259,7 +6284,7 @@
     </row>
     <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C370" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6268,7 +6293,7 @@
     </row>
     <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C371" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6277,7 +6302,7 @@
     </row>
     <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C372" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6286,7 +6311,7 @@
     </row>
     <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C373" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6295,7 +6320,7 @@
     </row>
     <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C374" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6304,7 +6329,7 @@
     </row>
     <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C375" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6313,7 +6338,7 @@
     </row>
     <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C376" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6322,7 +6347,7 @@
     </row>
     <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C377" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6331,7 +6356,7 @@
     </row>
     <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C378" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6340,7 +6365,7 @@
     </row>
     <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C379" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6349,7 +6374,7 @@
     </row>
     <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C380" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6358,7 +6383,7 @@
     </row>
     <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C381" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6367,7 +6392,7 @@
     </row>
     <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C382" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6376,7 +6401,7 @@
     </row>
     <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C383" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6385,7 +6410,7 @@
     </row>
     <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C384" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6394,7 +6419,7 @@
     </row>
     <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C385" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6403,7 +6428,7 @@
     </row>
     <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C386" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6412,7 +6437,7 @@
     </row>
     <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C387" s="1" t="str">
         <f t="shared" ref="C387:C411" si="6">"- "&amp;A387</f>
@@ -6421,7 +6446,7 @@
     </row>
     <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C388" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6430,7 +6455,7 @@
     </row>
     <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C389" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6439,7 +6464,7 @@
     </row>
     <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C390" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6448,7 +6473,7 @@
     </row>
     <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C391" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6457,7 +6482,7 @@
     </row>
     <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C392" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6466,7 +6491,7 @@
     </row>
     <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C393" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6475,7 +6500,7 @@
     </row>
     <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C394" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6484,7 +6509,7 @@
     </row>
     <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C395" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6493,7 +6518,7 @@
     </row>
     <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C396" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6502,7 +6527,7 @@
     </row>
     <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C397" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6511,7 +6536,7 @@
     </row>
     <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C398" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6520,7 +6545,7 @@
     </row>
     <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C399" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6529,7 +6554,7 @@
     </row>
     <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C400" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6538,7 +6563,7 @@
     </row>
     <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C401" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6547,7 +6572,7 @@
     </row>
     <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C402" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6556,7 +6581,7 @@
     </row>
     <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C403" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6565,7 +6590,7 @@
     </row>
     <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C404" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6574,7 +6599,7 @@
     </row>
     <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C405" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6583,7 +6608,7 @@
     </row>
     <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C406" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6592,7 +6617,7 @@
     </row>
     <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C407" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6601,7 +6626,7 @@
     </row>
     <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C408" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6610,7 +6635,7 @@
     </row>
     <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C409" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6619,7 +6644,7 @@
     </row>
     <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C410" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6628,7 +6653,7 @@
     </row>
     <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C411" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6650,9 +6675,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E1C12-CC63-4020-82EE-914F0329F21F}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6660,1306 +6687,1318 @@
     <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>"- "&amp;A2</f>
+        <v>- f_inclusion</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>"- "&amp;A3</f>
         <v>- edad</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C66" si="0">"- "&amp;A3</f>
+      <c r="D3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:C67" si="0">"- "&amp;A4</f>
         <v>- trabajo_otro</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- tipo_ejercicio</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="str">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- otra_dieta</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>- Tipo_alergia</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- Tipo_alergia</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- tipo_apetito</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="str">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- tipo_sueño</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="str">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- tipo_intervencion</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>- tipo_cardiacos</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- tipo_cardiacos</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>- tipo_acvascular</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- tipo_acvascular</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>- tipo_obesidad</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- tipo_obesidad</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>- tipo_diabetes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- tipo_diabetes</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>- tipo_colesterol</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- tipo_colesterol</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- tipo_hta</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- tipo_enfgastro</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1</v>
+        <v>- tipo_enfgastro</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_ruta</v>
+        <v>- med1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_dosis</v>
+        <v>- med1_ruta</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_unidades</v>
+        <v>- med1_dosis</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_vecesdia</v>
+        <v>- med1_unidades</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_indicacion</v>
+        <v>- med1_vecesdia</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_ inicio</v>
+        <v>- med1_indicacion</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_ final</v>
+        <v>- med1_ inicio</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1_continua</v>
+        <v>- med1_ final</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2</v>
+        <v>- med1_continua</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_ruta</v>
+        <v>- med2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_dosis</v>
+        <v>- med2_ruta</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_unidades</v>
+        <v>- med2_dosis</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_vecesdia</v>
+        <v>- med2_unidades</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_indicacion</v>
+        <v>- med2_vecesdia</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_ inicio</v>
+        <v>- med2_indicacion</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_ final</v>
+        <v>- med2_ inicio</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2_continua</v>
+        <v>- med2_ final</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3</v>
+        <v>- med2_continua</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_ruta</v>
+        <v>- med3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_dosis</v>
+        <v>- med3_ruta</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_unidades</v>
+        <v>- med3_dosis</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_vecesdia</v>
+        <v>- med3_unidades</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_indicacion</v>
+        <v>- med3_vecesdia</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_ inicio</v>
+        <v>- med3_indicacion</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_ final</v>
+        <v>- med3_ inicio</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3_continua</v>
+        <v>- med3_ final</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4</v>
+        <v>- med3_continua</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_ruta</v>
+        <v>- med4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_dosis</v>
+        <v>- med4_ruta</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_unidades</v>
+        <v>- med4_dosis</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_vecesdia</v>
+        <v>- med4_unidades</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_indicacion</v>
+        <v>- med4_vecesdia</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_ inicio</v>
+        <v>- med4_indicacion</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_ final</v>
+        <v>- med4_ inicio</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4_continua</v>
+        <v>- med4_ final</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5</v>
+        <v>- med4_continua</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_ruta</v>
+        <v>- med5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_dosis</v>
+        <v>- med5_ruta</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_unidades</v>
+        <v>- med5_dosis</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_vecesdia</v>
+        <v>- med5_unidades</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_indicacion</v>
+        <v>- med5_vecesdia</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_ inicio</v>
+        <v>- med5_indicacion</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_ final</v>
+        <v>- med5_ inicio</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5_continua</v>
+        <v>- med5_ final</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med6</v>
+        <v>- med5_continua</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med6_ruta</v>
+        <v>- med6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med6_dosis</v>
+        <v>- med6_ruta</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med6_unidades</v>
+        <v>- med6_dosis</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med6_vecesdia</v>
+        <v>- med6_unidades</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C130" si="1">"- "&amp;A67</f>
-        <v>- med6_indicacion</v>
+        <f t="shared" si="0"/>
+        <v>- med6_vecesdia</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>- med6_ inicio</v>
+        <f t="shared" ref="C68:C131" si="1">"- "&amp;A68</f>
+        <v>- med6_indicacion</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med6_ final</v>
+        <v>- med6_ inicio</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med6_continua</v>
+        <v>- med6_ final</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- observaciones_hc</v>
+        <v>- med6_continua</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- fecha_visita</v>
+        <v>- observaciones_hc</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- fecha_extra</v>
+        <v>- fecha_visita</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- fecha_analitica</v>
+        <v>- fecha_extra</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- edad_analitica</v>
+        <v>- fecha_analitica</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- bilirrubina_directa</v>
+        <v>- edad_analitica</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- bilirrubina_indirecta</v>
+        <v>- bilirrubina_directa</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- sed_orina</v>
+        <v>- bilirrubina_indirecta</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- amilasa_orina</v>
+        <v>- sed_orina</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- col_ldl_directo</v>
+        <v>- amilasa_orina</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- ccmh</v>
+        <v>- col_ldl_directo</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- hdw</v>
+        <v>- ccmh</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- macroocitos</v>
+        <v>- hdw</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- microcitos</v>
+        <v>- macroocitos</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- hematies_hipocromicos</v>
+        <v>- microcitos</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- pdw</v>
+        <v>- hematies_hipocromicos</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- luc_porcentaje</v>
+        <v>- pdw</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- luc</v>
+        <v>- luc_porcentaje</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- anti_tpo</v>
+        <v>- luc</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- tipo_enf</v>
+        <v>- anti_tpo</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_1</v>
+        <v>- tipo_enf</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_ruta_1</v>
+        <v>- med1_1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_dosis_1</v>
+        <v>- med1_ruta_1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_unidades_1</v>
+        <v>- med1_dosis_1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_vecesdia_1</v>
+        <v>- med1_unidades_1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_indicacion_1</v>
+        <v>- med1_vecesdia_1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_ inicio_1</v>
+        <v>- med1_indicacion_1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_ final_1</v>
+        <v>- med1_ inicio_1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med1_continua_1</v>
+        <v>- med1_ final_1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_1</v>
+        <v>- med1_continua_1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_ruta_1</v>
+        <v>- med2_1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_dosis_1</v>
+        <v>- med2_ruta_1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_unidades_1</v>
+        <v>- med2_dosis_1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_vecesdia_1</v>
+        <v>- med2_unidades_1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_indicacion_1</v>
+        <v>- med2_vecesdia_1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_ inicio_1</v>
+        <v>- med2_indicacion_1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_ final_1</v>
+        <v>- med2_ inicio_1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med2_continua_1</v>
+        <v>- med2_ final_1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_1</v>
+        <v>- med2_continua_1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_ruta_1</v>
+        <v>- med3_1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_dosis_1</v>
+        <v>- med3_ruta_1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_unidades_1</v>
+        <v>- med3_dosis_1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_vecesdia_1</v>
+        <v>- med3_unidades_1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_indicacion_1</v>
+        <v>- med3_vecesdia_1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_ inicio_1</v>
+        <v>- med3_indicacion_1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_ final_1</v>
+        <v>- med3_ inicio_1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med3_continua_1</v>
+        <v>- med3_ final_1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_1</v>
+        <v>- med3_continua_1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_ruta_1</v>
+        <v>- med4_1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_dosis_1</v>
+        <v>- med4_ruta_1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_unidades_1</v>
+        <v>- med4_dosis_1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_vecesdia_1</v>
+        <v>- med4_unidades_1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_indicacion_1</v>
+        <v>- med4_vecesdia_1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_ inicio_1</v>
+        <v>- med4_indicacion_1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_ final_1</v>
+        <v>- med4_ inicio_1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- med4_continua_1</v>
+        <v>- med4_ final_1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- FC1_izq</v>
+        <v>- med4_continua_1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- FC2_izq</v>
+        <v>- FC1_izq</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- FC3_izq</v>
+        <v>- FC2_izq</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C130" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>- FC1_der</v>
+        <v>- FC3_izq</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C131" s="1" t="str">
-        <f t="shared" ref="C131:C145" si="2">"- "&amp;A131</f>
-        <v>- FC2_der</v>
+        <f t="shared" si="1"/>
+        <v>- FC1_der</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C132" s="1" t="str">
+        <f t="shared" ref="C132:C146" si="2">"- "&amp;A132</f>
+        <v>- FC2_der</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- FC3_der</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C133" s="1" t="str">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- cintura1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" s="1" t="str">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- cintura2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C135" s="1" t="str">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- cintura3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C136" s="1" t="str">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C137" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- cadera1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C137" s="1" t="str">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- cadera2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C138" s="1" t="str">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C139" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- cadera3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C139" s="1" t="str">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- pgh_5j_especifica</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C140" s="1" t="str">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- ta_i5_t1_c1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C141" s="1" t="str">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- ta_i7_t1_c1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C142" s="1" t="str">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- tb_i9_t1_c1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C143" s="1" t="str">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- PAS_media</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C144" s="1" t="str">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- PAD_media</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C145" s="1" t="str">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>- xb</v>
       </c>
@@ -7972,10 +8011,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05DF8D6-FC28-42E3-A215-A4BF25D82B23}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7988,481 +8027,469 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>"- "&amp;B2</f>
-        <v>- f_inclusion</v>
+        <f t="shared" ref="D2:D43" si="0">"- "&amp;B2</f>
+        <v>- f_nac</v>
       </c>
       <c r="F2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D44" si="0">"- "&amp;B3</f>
-        <v>- f_nac</v>
+        <f t="shared" si="0"/>
+        <v>- med1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med1</v>
+        <v>- med2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med2</v>
+        <v>- med3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med3</v>
+        <v>- med4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med4</v>
+        <v>- med5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med5</v>
+        <v>- med6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- med6</v>
+        <v>- ini_menst</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>- fin_menst</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- ini_menst</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- fin_menst</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>281</v>
+        <v>- num_depo</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- num_depo</v>
+        <v>- observaciones</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>306</v>
+      <c r="A13" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- observaciones</v>
+        <v>- pgh_5j</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>375</v>
+      <c r="A14" s="8" t="s">
+        <v>615</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>374</v>
+        <v>603</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- pgh_5j</v>
+        <v>- tom_dias</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>617</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_dias</v>
+        <v>- tom_momento</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_momento</v>
+        <v>- tom_aceite</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_aceite</v>
+        <v>- tom_crudo</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_crudo</v>
+        <v>- tom_cocido</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_cocido</v>
+        <v>- tom_sofrito</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_sofrito</v>
+        <v>- tom_horno</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_horno</v>
+        <v>- tom_micro</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_micro</v>
+        <v>- tom_fa</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_fa</v>
+        <v>- tom_otro</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_otro</v>
+        <v>- tom_no</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_no</v>
+        <v>- tom_completo</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>616</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- tom_completo</v>
+        <v>- g_dia_tom</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>620</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- g_dia_tom</v>
+        <v>- mg_dia_licopeno</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="7" t="s">
+        <v>677</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>619</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- mg_dia_licopeno</v>
+        <v>- hemoglobina_orina</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>679</v>
-      </c>
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- hemoglobina_orina</v>
+        <v>- leucocitos_orina</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- leucocitos_orina</v>
+        <v>- nitritos_orina</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- nitritos_orina</v>
+        <v>- albumina_orina</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- albumina_orina</v>
+        <v>- bilirrubina_orina</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- bilirrubina_orina</v>
+        <v>- cetonas_orina</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- cetonas_orina</v>
+        <v>- urobilinogeno_orina</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- urobilinogeno_orina</v>
+        <v>- glucosa_orina</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- glucosa_orina</v>
+        <v>- hematies_sed</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- hematies_sed</v>
+        <v>- leucocitos_sed</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- leucocitos_sed</v>
+        <v>- bacterias_sed</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- bacterias_sed</v>
+        <v>- celulas_epiteliales_sed</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- celulas_epiteliales_sed</v>
+        <v>- cilindros_hialinos_sed</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- cilindros_hialinos_sed</v>
+        <v>- precipitados_urat_sed</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- precipitados_urat_sed</v>
+        <v>- oxalato_calcico_sed</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>- oxalato_calcico_sed</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- fibra_mucoide_sed</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A44"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8486,42 +8513,42 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>"- "&amp;A2</f>
         <v>- cv_p1</v>
       </c>
       <c r="E2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C41" si="0">"- "&amp;A3</f>
         <v>- cv_p2</v>
       </c>
       <c r="E3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8530,7 +8557,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8539,7 +8566,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8548,7 +8575,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8557,7 +8584,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8566,7 +8593,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8575,7 +8602,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8584,7 +8611,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8593,7 +8620,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8602,7 +8629,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8611,7 +8638,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8620,7 +8647,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8629,7 +8656,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8638,7 +8665,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8647,7 +8674,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8656,7 +8683,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8665,7 +8692,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8674,7 +8701,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8683,7 +8710,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8692,7 +8719,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8701,7 +8728,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8710,7 +8737,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8719,7 +8746,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8728,7 +8755,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8737,7 +8764,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8746,7 +8773,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8755,7 +8782,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8764,7 +8791,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8773,7 +8800,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8782,7 +8809,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8791,7 +8818,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8800,7 +8827,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8809,7 +8836,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8818,7 +8845,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8827,7 +8854,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8836,7 +8863,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8845,7 +8872,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8854,7 +8881,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8884,15 +8911,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>"- "&amp;B2</f>
@@ -8901,10 +8928,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D8" si="0">"- "&amp;B3</f>
@@ -8914,7 +8941,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8924,7 +8951,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8934,7 +8961,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8944,7 +8971,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8954,7 +8981,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Support Files/Tratamiento a Variables.xlsx
+++ b/Support Files/Tratamiento a Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E8705-C581-42F1-B13E-02C4C1CC8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139D506-A59E-43CE-BCFC-05EE147EC986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="685">
   <si>
     <t>frec_alcohol_audit</t>
   </si>
@@ -2113,6 +2113,9 @@
       </rPr>
       <t>'total_meds'</t>
     </r>
+  </si>
+  <si>
+    <t>PENDIENTE APLICAR LA FUNCIÓN DE RELLENAR</t>
   </si>
 </sst>
 </file>
@@ -2157,12 +2160,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2177,7 +2186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2191,11 +2200,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2206,9 +2215,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8013,8 +8026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05DF8D6-FC28-42E3-A215-A4BF25D82B23}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8029,7 +8042,7 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8058,7 +8071,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>683</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8142,15 +8155,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>278</v>
       </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- num_depo</v>
+      </c>
+      <c r="E11" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/Support Files/Tratamiento a Variables.xlsx
+++ b/Support Files/Tratamiento a Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139D506-A59E-43CE-BCFC-05EE147EC986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E2330C-F601-4F1A-A80D-997B874E78E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="686">
   <si>
     <t>frec_alcohol_audit</t>
   </si>
@@ -1889,11 +1889,6 @@
   </si>
   <si>
     <t>tom_completo</t>
-  </si>
-  <si>
-    <t>SOLO VAMOS A TENER UNA VEZ VALOR POR ID, DEPENDIENDO DEL SUBGRUPO
-PENSAR EN COMO HACER QUE SU DATO LOS REPRESENTE EN TODAS SUS VISITAS
-PONER 0 A LOS QUE TENGAN VALOR EN EL RENGLÓN</t>
   </si>
   <si>
     <t>g_dia_tom</t>
@@ -2117,12 +2112,35 @@
   <si>
     <t>PENDIENTE APLICAR LA FUNCIÓN DE RELLENAR</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOLO VAMOS A TENER UNA VEZ VALOR POR ID, DEPENDIENDO DEL SUBGRUPO
+PENSAR EN COMO HACER QUE SU DATO LOS REPRESENTE EN TODAS SUS VISITAS
+PONER 0 A LOS QUE TENGAN VALOR EN EL RENGLÓN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NOTA: VARIABLE IMPORTANTE EN MODELADO, LA TENDREMOS QUE INTERPRETAR Y ACOMODAR BIEN, ES EL TOMATE QUE SE LES DIÓ SOLO CUANDO ESTUVIERON EN TRATAMIENTO DE TOMATE.</t>
+    </r>
+  </si>
+  <si>
+    <t>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed','celulas_epiteliales_sed','cilindros_hialinos_sed','precipitados_urat_sed','oxalato_calcico_sed','fibra_mucoide_sed'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2159,19 +2177,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2186,7 +2206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2215,13 +2235,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2571,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2955,7 +2978,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166F06B2-CCC4-458B-AB48-916FB3B91EA2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2971,13 +2993,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -2989,7 +3011,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -3001,7 +3023,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
@@ -3010,7 +3032,7 @@
         <v>- bun</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -3019,7 +3041,7 @@
         <v>- creatinina</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -3028,7 +3050,7 @@
         <v>- filtrado_glomerular</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -3037,7 +3059,7 @@
         <v>- ac_urico</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
@@ -3046,7 +3068,7 @@
         <v>- col_total</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -3055,7 +3077,7 @@
         <v>- trigliceridos</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
@@ -3064,7 +3086,7 @@
         <v>- asat</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>129</v>
       </c>
@@ -3073,7 +3095,7 @@
         <v>- alat</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
@@ -3082,7 +3104,7 @@
         <v>- ggt</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>131</v>
       </c>
@@ -3091,7 +3113,7 @@
         <v>- bilirrubina_total</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -3100,7 +3122,7 @@
         <v>- fosfatasa_alcalina</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -3109,7 +3131,7 @@
         <v>- ldh</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
@@ -3118,7 +3140,7 @@
         <v>- proteinas_totales</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -3127,7 +3149,7 @@
         <v>- albumina</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
@@ -3136,7 +3158,7 @@
         <v>- amilasa</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
@@ -3145,7 +3167,7 @@
         <v>- lipasa</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -3154,7 +3176,7 @@
         <v>- sodio</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -3163,7 +3185,7 @@
         <v>- potasio</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -3172,7 +3194,7 @@
         <v>- cloro</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
@@ -3181,7 +3203,7 @@
         <v>- calcio</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
@@ -3190,7 +3212,7 @@
         <v>- fosforo</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -3199,7 +3221,7 @@
         <v>- magnesio</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
@@ -3208,7 +3230,7 @@
         <v>- hierro</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>148</v>
       </c>
@@ -3217,7 +3239,7 @@
         <v>- densidad_orina</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>149</v>
       </c>
@@ -3226,7 +3248,7 @@
         <v>- ph_orina</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>150</v>
       </c>
@@ -3235,7 +3257,7 @@
         <v>- hemoglobina_orina</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>151</v>
       </c>
@@ -3244,7 +3266,7 @@
         <v>- leucocitos_orina</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>152</v>
       </c>
@@ -3262,7 +3284,7 @@
         <v>- albumina_orina</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>154</v>
       </c>
@@ -3271,7 +3293,7 @@
         <v>- bilirrubina_orina</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>155</v>
       </c>
@@ -3280,7 +3302,7 @@
         <v>- cetonas_orina</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>156</v>
       </c>
@@ -3289,7 +3311,7 @@
         <v>- urobilinogeno_orina</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>157</v>
       </c>
@@ -3298,7 +3320,7 @@
         <v>- glucosa_orina</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
@@ -3307,7 +3329,7 @@
         <v>- hematies_sed</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
@@ -3316,7 +3338,7 @@
         <v>- leucocitos_sed</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -3325,7 +3347,7 @@
         <v>- bacterias_sed</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>161</v>
       </c>
@@ -3334,7 +3356,7 @@
         <v>- celulas_epiteliales_sed</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -3343,7 +3365,7 @@
         <v>- cilindros_hialinos_sed</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
@@ -3352,7 +3374,7 @@
         <v>- precipitados_urat_sed</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -3361,7 +3383,7 @@
         <v>- oxalato_calcico_sed</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -3370,7 +3392,7 @@
         <v>- fibra_mucoide_sed</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
@@ -3388,7 +3410,7 @@
         <v>- albumina_orina</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
@@ -3397,7 +3419,7 @@
         <v>- indice_albumina_creatinina</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -3406,7 +3428,7 @@
         <v>- albumina_porcentaje</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>170</v>
       </c>
@@ -3415,7 +3437,7 @@
         <v>- alfa1_globulina</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>171</v>
       </c>
@@ -3424,7 +3446,7 @@
         <v>- alfa2_globulina</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
@@ -3433,7 +3455,7 @@
         <v>- beta_globulina</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
@@ -3442,7 +3464,7 @@
         <v>- gamma_globulina</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
@@ -3451,7 +3473,7 @@
         <v>- indice_albumina_globulinas</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>175</v>
       </c>
@@ -3460,7 +3482,7 @@
         <v>- prealbumina</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>176</v>
       </c>
@@ -3469,7 +3491,7 @@
         <v>- ferritina</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
@@ -3478,7 +3500,7 @@
         <v>- transferrina</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>178</v>
       </c>
@@ -3487,7 +3509,7 @@
         <v>- capacidad_ligar_hierro</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -3496,7 +3518,7 @@
         <v>- saturacion_transferrina</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>180</v>
       </c>
@@ -3505,7 +3527,7 @@
         <v>- col_ldl</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>182</v>
       </c>
@@ -3514,7 +3536,7 @@
         <v>- col_hdl</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3523,7 +3545,7 @@
         <v>- apolipoproteina_a1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -3532,7 +3554,7 @@
         <v>- apolipoproteina_b</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
@@ -3541,7 +3563,7 @@
         <v>- homocisteina_basal</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
@@ -3550,7 +3572,7 @@
         <v>- ac_folico_intraeritrocitos</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>187</v>
       </c>
@@ -3559,7 +3581,7 @@
         <v>- vit_b12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -3568,7 +3590,7 @@
         <v>- ac_folico_serico</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>189</v>
       </c>
@@ -3577,7 +3599,7 @@
         <v>- selenio</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>190</v>
       </c>
@@ -3586,7 +3608,7 @@
         <v>- zinc</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>191</v>
       </c>
@@ -3595,7 +3617,7 @@
         <v>- cobre</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>192</v>
       </c>
@@ -3604,7 +3626,7 @@
         <v>- leucocitos</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -3613,7 +3635,7 @@
         <v>- hematies</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>194</v>
       </c>
@@ -3622,7 +3644,7 @@
         <v>- hemoglobina</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>195</v>
       </c>
@@ -3631,7 +3653,7 @@
         <v>- hematocrito</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>196</v>
       </c>
@@ -3640,7 +3662,7 @@
         <v>- vcm</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>197</v>
       </c>
@@ -3649,7 +3671,7 @@
         <v>- hcm</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>199</v>
       </c>
@@ -3658,7 +3680,7 @@
         <v>- chcm</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>200</v>
       </c>
@@ -3667,7 +3689,7 @@
         <v>- ade</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>206</v>
       </c>
@@ -3676,7 +3698,7 @@
         <v>- neutrofilos_porcentaje</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>207</v>
       </c>
@@ -3685,7 +3707,7 @@
         <v>- eosinofilos_porcentaje</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>208</v>
       </c>
@@ -3694,7 +3716,7 @@
         <v>- basofilos_porcentaje</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>209</v>
       </c>
@@ -3703,7 +3725,7 @@
         <v>- linfocitos_porcentaje</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>210</v>
       </c>
@@ -3712,7 +3734,7 @@
         <v>- monocitos_porcentaje</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>212</v>
       </c>
@@ -3721,7 +3743,7 @@
         <v>- neutrofilos</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>213</v>
       </c>
@@ -3730,7 +3752,7 @@
         <v>- eosinofilos</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>214</v>
       </c>
@@ -3739,7 +3761,7 @@
         <v>- basofilos</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>215</v>
       </c>
@@ -3748,7 +3770,7 @@
         <v>- linfocitos</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>216</v>
       </c>
@@ -3757,7 +3779,7 @@
         <v>- monocitos</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>218</v>
       </c>
@@ -3766,7 +3788,7 @@
         <v>- vsg</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>219</v>
       </c>
@@ -3775,7 +3797,7 @@
         <v>- hemoglobina_glicada</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>220</v>
       </c>
@@ -3784,7 +3806,7 @@
         <v>- tiempo_protrombina_porcentaje</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>221</v>
       </c>
@@ -3793,7 +3815,7 @@
         <v>- tiempo_protrombina</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>222</v>
       </c>
@@ -3802,7 +3824,7 @@
         <v>- inr</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>223</v>
       </c>
@@ -3811,7 +3833,7 @@
         <v>- tiempo_protrombina_rati</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>224</v>
       </c>
@@ -3820,7 +3842,7 @@
         <v>- tiempo_tromboplastina</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>225</v>
       </c>
@@ -3829,7 +3851,7 @@
         <v>- tiempo_tromboplastina_rati</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>226</v>
       </c>
@@ -3838,7 +3860,7 @@
         <v>- fibrinogeno</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>227</v>
       </c>
@@ -3847,7 +3869,7 @@
         <v>- tsh</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>228</v>
       </c>
@@ -3856,7 +3878,7 @@
         <v>- t4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>229</v>
       </c>
@@ -3865,7 +3887,7 @@
         <v>- t3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
@@ -3874,7 +3896,7 @@
         <v>- cortisol</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>232</v>
       </c>
@@ -3883,7 +3905,7 @@
         <v>- insulina</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>233</v>
       </c>
@@ -3892,7 +3914,7 @@
         <v>- vit_d3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>234</v>
       </c>
@@ -3901,7 +3923,7 @@
         <v>- enf</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>236</v>
       </c>
@@ -3910,7 +3932,7 @@
         <v>- antibioticos</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>237</v>
       </c>
@@ -3919,7 +3941,7 @@
         <v>- medicamentos</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>277</v>
       </c>
@@ -3928,7 +3950,7 @@
         <v>- bristol</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>280</v>
       </c>
@@ -3937,7 +3959,7 @@
         <v>- PAS_izq</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>281</v>
       </c>
@@ -3946,7 +3968,7 @@
         <v>- PAD_izq</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>282</v>
       </c>
@@ -3955,7 +3977,7 @@
         <v>- PAS_der</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>283</v>
       </c>
@@ -3964,7 +3986,7 @@
         <v>- PAD_der</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>290</v>
       </c>
@@ -3973,7 +3995,7 @@
         <v>- peso</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>291</v>
       </c>
@@ -3982,7 +4004,7 @@
         <v>- talla</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>292</v>
       </c>
@@ -3991,7 +4013,7 @@
         <v>- imc</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>293</v>
       </c>
@@ -4000,7 +4022,7 @@
         <v>- grasa</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>294</v>
       </c>
@@ -4009,7 +4031,7 @@
         <v>- musculo</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>295</v>
       </c>
@@ -4018,7 +4040,7 @@
         <v>- grasa_vic</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>296</v>
       </c>
@@ -4027,7 +4049,7 @@
         <v>- tmb</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>305</v>
       </c>
@@ -4036,7 +4058,7 @@
         <v>- tiempo_sedentario</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>306</v>
       </c>
@@ -4045,7 +4067,7 @@
         <v>- af_ligera</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>307</v>
       </c>
@@ -4054,7 +4076,7 @@
         <v>- af_mv</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>308</v>
       </c>
@@ -4063,7 +4085,7 @@
         <v>- af_ligera_porcentaje</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>309</v>
       </c>
@@ -4072,7 +4094,7 @@
         <v>- af_mv_procentaje</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>310</v>
       </c>
@@ -4081,7 +4103,7 @@
         <v>- pasos_dia</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>311</v>
       </c>
@@ -4090,7 +4112,7 @@
         <v>- eficiencia_sueño</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>312</v>
       </c>
@@ -4099,7 +4121,7 @@
         <v>- min_cama</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>313</v>
       </c>
@@ -4108,7 +4130,7 @@
         <v>- min_dormir</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>314</v>
       </c>
@@ -4117,7 +4139,7 @@
         <v>- waso</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>315</v>
       </c>
@@ -4126,7 +4148,7 @@
         <v>- num_despertares</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>316</v>
       </c>
@@ -4135,7 +4157,7 @@
         <v>- duracion_despertares</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>317</v>
       </c>
@@ -4144,7 +4166,7 @@
         <v>- ind_frag_sueño</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>318</v>
       </c>
@@ -4153,7 +4175,7 @@
         <v>- ind_mov</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>319</v>
       </c>
@@ -4162,7 +4184,7 @@
         <v>- ind_frag</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>320</v>
       </c>
@@ -4171,7 +4193,7 @@
         <v>- ipaq_dias_int</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>321</v>
       </c>
@@ -4180,7 +4202,7 @@
         <v>- ipaq_min_int</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>322</v>
       </c>
@@ -4189,7 +4211,7 @@
         <v>- ipaq_dias_mod</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>323</v>
       </c>
@@ -4198,7 +4220,7 @@
         <v>- ipaq_min_mod</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>324</v>
       </c>
@@ -4207,7 +4229,7 @@
         <v>- ipaq_dias_cam</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>325</v>
       </c>
@@ -4216,7 +4238,7 @@
         <v>- ipaq_min_cam</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>326</v>
       </c>
@@ -4225,7 +4247,7 @@
         <v>- ipaq_horas_sent</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>327</v>
       </c>
@@ -4234,7 +4256,7 @@
         <v>- ipaq_mets</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>328</v>
       </c>
@@ -4243,7 +4265,7 @@
         <v>- ipaq_nivel_af</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>329</v>
       </c>
@@ -4252,7 +4274,7 @@
         <v>- d2_con_pd</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>330</v>
       </c>
@@ -4261,7 +4283,7 @@
         <v>- d2_con_pc</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>331</v>
       </c>
@@ -4270,7 +4292,7 @@
         <v>- d2_con_pt</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>332</v>
       </c>
@@ -4279,7 +4301,7 @@
         <v>- d2_vt_pd</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>333</v>
       </c>
@@ -4288,7 +4310,7 @@
         <v>- d2_vt_pc</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>334</v>
       </c>
@@ -4297,7 +4319,7 @@
         <v>- d2_vt_pt</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>335</v>
       </c>
@@ -4306,7 +4328,7 @@
         <v>- d2_e_pd</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>336</v>
       </c>
@@ -4315,7 +4337,7 @@
         <v>- d2_e_pc</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>337</v>
       </c>
@@ -4324,7 +4346,7 @@
         <v>- d2_e_pt</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>338</v>
       </c>
@@ -4333,7 +4355,7 @@
         <v>- d2_con1_pd</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>339</v>
       </c>
@@ -4342,7 +4364,7 @@
         <v>- d2_con2_pd</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>340</v>
       </c>
@@ -4351,7 +4373,7 @@
         <v>- d2_con3_pd</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>341</v>
       </c>
@@ -4360,7 +4382,7 @@
         <v>- d2_con4_pd</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>342</v>
       </c>
@@ -4369,7 +4391,7 @@
         <v>- wcst_años_educacion</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>343</v>
       </c>
@@ -4378,7 +4400,7 @@
         <v>- wcst_cc_pd</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>344</v>
       </c>
@@ -4387,7 +4409,7 @@
         <v>- wcst_cc_t</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>345</v>
       </c>
@@ -4396,7 +4418,7 @@
         <v>- wcst_ep_pd</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>346</v>
       </c>
@@ -4405,7 +4427,7 @@
         <v>- wcst_ep_t</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>347</v>
       </c>
@@ -4414,7 +4436,7 @@
         <v>- wcst_te_pd</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>348</v>
       </c>
@@ -4423,7 +4445,7 @@
         <v>- wcst_te_t</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>349</v>
       </c>
@@ -4432,7 +4454,7 @@
         <v>- wcst_pp_pd</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>350</v>
       </c>
@@ -4441,7 +4463,7 @@
         <v>- wcst_pp_t</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>351</v>
       </c>
@@ -4450,7 +4472,7 @@
         <v>- wcst_ife_pd</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>352</v>
       </c>
@@ -4459,7 +4481,7 @@
         <v>- wcst_ife_t</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>353</v>
       </c>
@@ -4468,7 +4490,7 @@
         <v>- fn_cara</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>354</v>
       </c>
@@ -4477,7 +4499,7 @@
         <v>- fn_letra</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>355</v>
       </c>
@@ -4486,7 +4508,7 @@
         <v>- fn_nombre</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>356</v>
       </c>
@@ -4495,7 +4517,7 @@
         <v>- ad_dietamed</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>357</v>
       </c>
@@ -4504,7 +4526,7 @@
         <v>- ansiedad</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>358</v>
       </c>
@@ -4513,7 +4535,7 @@
         <v>- depresion</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>359</v>
       </c>
@@ -4522,7 +4544,7 @@
         <v>- pgh_h_acostarse</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>360</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>- pgh_min_dormirse</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>361</v>
       </c>
@@ -4540,7 +4562,7 @@
         <v>- pgh_h_levantarse</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>362</v>
       </c>
@@ -4549,7 +4571,7 @@
         <v>- pgh_h_dormir</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>363</v>
       </c>
@@ -4558,7 +4580,7 @@
         <v>- pgh_5a</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>364</v>
       </c>
@@ -4567,7 +4589,7 @@
         <v>- pgh_5b</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>365</v>
       </c>
@@ -4576,7 +4598,7 @@
         <v>- pgh_5c</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>366</v>
       </c>
@@ -4585,7 +4607,7 @@
         <v>- pgh_5d</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>367</v>
       </c>
@@ -4594,7 +4616,7 @@
         <v>- pgh_5e</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>368</v>
       </c>
@@ -4603,7 +4625,7 @@
         <v>- pgh_5f</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>369</v>
       </c>
@@ -4612,7 +4634,7 @@
         <v>- pgh_5g</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
@@ -4621,7 +4643,7 @@
         <v>- pgh_5h</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>371</v>
       </c>
@@ -4630,7 +4652,7 @@
         <v>- pgh_5i</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>375</v>
       </c>
@@ -4639,7 +4661,7 @@
         <v>- pgh_calidad_sueño</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>376</v>
       </c>
@@ -4648,7 +4670,7 @@
         <v>- pgh_med_dormir</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>377</v>
       </c>
@@ -4657,7 +4679,7 @@
         <v>- pgh_somnolencias</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>378</v>
       </c>
@@ -4666,7 +4688,7 @@
         <v>- pgh_tener_animos</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>379</v>
       </c>
@@ -4675,7 +4697,7 @@
         <v>- pgh_compañia</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>380</v>
       </c>
@@ -4684,7 +4706,7 @@
         <v>- pgh_compañia_a</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>381</v>
       </c>
@@ -4693,7 +4715,7 @@
         <v>- pgh_compañia_b</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>382</v>
       </c>
@@ -4702,7 +4724,7 @@
         <v>- pgh_compañia_c</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>383</v>
       </c>
@@ -4711,7 +4733,7 @@
         <v>- pgh_compañia_d</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>384</v>
       </c>
@@ -4720,7 +4742,7 @@
         <v>- pgh_compañia_e</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>419</v>
       </c>
@@ -4729,7 +4751,7 @@
         <v>- ffq_panblanco</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>420</v>
       </c>
@@ -4738,7 +4760,7 @@
         <v>- ffq_paninteg</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>421</v>
       </c>
@@ -4747,7 +4769,7 @@
         <v>- ffq_cerealdes</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>422</v>
       </c>
@@ -4756,7 +4778,7 @@
         <v>- ffq_muesli</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>423</v>
       </c>
@@ -4765,7 +4787,7 @@
         <v>- ffq_arrozblan</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>424</v>
       </c>
@@ -4774,7 +4796,7 @@
         <v>- ffq_arrozINT</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>425</v>
       </c>
@@ -4783,7 +4805,7 @@
         <v>- ffq_pastaINT</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>426</v>
       </c>
@@ -4792,7 +4814,7 @@
         <v>- ffq_espagueti</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>427</v>
       </c>
@@ -4801,7 +4823,7 @@
         <v>- ffq_quinoa</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>428</v>
       </c>
@@ -4810,7 +4832,7 @@
         <v>- ffq_lenteja</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>429</v>
       </c>
@@ -4819,7 +4841,7 @@
         <v>- ffq_alubiaseca</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>430</v>
       </c>
@@ -4828,7 +4850,7 @@
         <v>- ffq_garbanzos</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>431</v>
       </c>
@@ -4837,7 +4859,7 @@
         <v>- ffq_guisantes</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>432</v>
       </c>
@@ -4846,7 +4868,7 @@
         <v>- ffq_acelgas</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>433</v>
       </c>
@@ -4855,7 +4877,7 @@
         <v>- ffq_coles</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>434</v>
       </c>
@@ -4864,7 +4886,7 @@
         <v>- ffq_lechug</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>435</v>
       </c>
@@ -4873,7 +4895,7 @@
         <v>- ffq_tomat</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>436</v>
       </c>
@@ -4882,7 +4904,7 @@
         <v>- ffq_zanahor</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>437</v>
       </c>
@@ -4891,7 +4913,7 @@
         <v>- ffq_jverde</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>438</v>
       </c>
@@ -4900,7 +4922,7 @@
         <v>- ffq_calabacin</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>439</v>
       </c>
@@ -4909,7 +4931,7 @@
         <v>- ffq_pimientos</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>440</v>
       </c>
@@ -4918,7 +4940,7 @@
         <v>- ffq_esparragos</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>441</v>
       </c>
@@ -4927,7 +4949,7 @@
         <v>- ffq_gazpach</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>442</v>
       </c>
@@ -4936,7 +4958,7 @@
         <v>- ffq_otrasver</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>443</v>
       </c>
@@ -4945,7 +4967,7 @@
         <v>- ffq_cebollas</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>444</v>
       </c>
@@ -4954,7 +4976,7 @@
         <v>- ffq_ajos</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>445</v>
       </c>
@@ -4963,7 +4985,7 @@
         <v>- ffq_seta</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>446</v>
       </c>
@@ -4972,7 +4994,7 @@
         <v>- ffq_p_cocidas</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>447</v>
       </c>
@@ -4981,7 +5003,7 @@
         <v>- ffq_p_fritascas</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>448</v>
       </c>
@@ -4990,7 +5012,7 @@
         <v>- ffq_sofrito</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>449</v>
       </c>
@@ -4999,7 +5021,7 @@
         <v>- ffq_naranjas</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>450</v>
       </c>
@@ -5008,7 +5030,7 @@
         <v>- ffq_platanos</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>451</v>
       </c>
@@ -5017,7 +5039,7 @@
         <v>- ffq_manzanas</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>452</v>
       </c>
@@ -5026,7 +5048,7 @@
         <v>- ffq_fresa</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>453</v>
       </c>
@@ -5035,7 +5057,7 @@
         <v>- ffq_cerezas</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>454</v>
       </c>
@@ -5044,7 +5066,7 @@
         <v>- ffq_melocoton</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>455</v>
       </c>
@@ -5053,7 +5075,7 @@
         <v>- ffq_sandi</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>456</v>
       </c>
@@ -5062,7 +5084,7 @@
         <v>- ffq_kiwis</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>457</v>
       </c>
@@ -5071,7 +5093,7 @@
         <v>- ffq_pina</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>458</v>
       </c>
@@ -5080,7 +5102,7 @@
         <v>- ffq_uva</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>459</v>
       </c>
@@ -5089,7 +5111,7 @@
         <v>- ffq_tropicales</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>460</v>
       </c>
@@ -5098,7 +5120,7 @@
         <v>- ffq_almibar</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>461</v>
       </c>
@@ -5107,7 +5129,7 @@
         <v>- ffq_pasas</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>462</v>
       </c>
@@ -5116,7 +5138,7 @@
         <v>- ffq_almendras</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>463</v>
       </c>
@@ -5125,7 +5147,7 @@
         <v>- ffq_avellanas</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>464</v>
       </c>
@@ -5134,7 +5156,7 @@
         <v>- ffq_nuez</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>465</v>
       </c>
@@ -5143,7 +5165,7 @@
         <v>- ffq_pistacho</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>466</v>
       </c>
@@ -5152,7 +5174,7 @@
         <v>- ffq_semillas</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>467</v>
       </c>
@@ -5161,7 +5183,7 @@
         <v>- ffq_leche_ent</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>468</v>
       </c>
@@ -5170,7 +5192,7 @@
         <v>- ffq_leche_semi</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>469</v>
       </c>
@@ -5179,7 +5201,7 @@
         <v>- ffq_leche_desn</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>470</v>
       </c>
@@ -5188,7 +5210,7 @@
         <v>- ffq_leche_cond</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>471</v>
       </c>
@@ -5197,7 +5219,7 @@
         <v>- ffq_bebidas_vegetales</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>472</v>
       </c>
@@ -5206,7 +5228,7 @@
         <v>- ffq_yogur_ent</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>473</v>
       </c>
@@ -5215,7 +5237,7 @@
         <v>- ffq_yogur_des</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>474</v>
       </c>
@@ -5224,7 +5246,7 @@
         <v>- ffq_otros_lacteos</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>475</v>
       </c>
@@ -5233,7 +5255,7 @@
         <v>- ffq_nata_crema</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>476</v>
       </c>
@@ -5242,7 +5264,7 @@
         <v>- ffq_batidos</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>477</v>
       </c>
@@ -5251,7 +5273,7 @@
         <v>- ffq_requeson</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>478</v>
       </c>
@@ -5260,7 +5282,7 @@
         <v>- ffq_quesito</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>479</v>
       </c>
@@ -5269,7 +5291,7 @@
         <v>- ffq_quesos</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>480</v>
       </c>
@@ -5278,7 +5300,7 @@
         <v>- ffq_q_fresco</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>481</v>
       </c>
@@ -5287,7 +5309,7 @@
         <v>- ffq_helados</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>482</v>
       </c>
@@ -5296,7 +5318,7 @@
         <v>- ffq_huevos</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>483</v>
       </c>
@@ -5305,7 +5327,7 @@
         <v>- ffq_p_blanco</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>484</v>
       </c>
@@ -5314,7 +5336,7 @@
         <v>- ffq_p_azul</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>485</v>
       </c>
@@ -5323,7 +5345,7 @@
         <v>- ffq_bacalao</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>486</v>
       </c>
@@ -5332,7 +5354,7 @@
         <v>- ffq_almejas</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>487</v>
       </c>
@@ -5341,7 +5363,7 @@
         <v>- ffq_calamar</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>488</v>
       </c>
@@ -5350,7 +5372,7 @@
         <v>- ffq_crustaceos</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>489</v>
       </c>
@@ -5359,7 +5381,7 @@
         <v>- ffq_p_aceite</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>490</v>
       </c>
@@ -5368,7 +5390,7 @@
         <v>- ffq_p_natural</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>491</v>
       </c>
@@ -5377,7 +5399,7 @@
         <v>- ffq_surimi</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>492</v>
       </c>
@@ -5386,7 +5408,7 @@
         <v>- ffq_pollopiel</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>493</v>
       </c>
@@ -5395,7 +5417,7 @@
         <v>- ffq_pollonopiel</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>494</v>
       </c>
@@ -5404,7 +5426,7 @@
         <v>- ffq_c_ternera</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>495</v>
       </c>
@@ -5413,7 +5435,7 @@
         <v>- ffq_c_cerdomagra</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>496</v>
       </c>
@@ -5422,7 +5444,7 @@
         <v>- ffq_c_cerdonomagra</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>497</v>
       </c>
@@ -5431,7 +5453,7 @@
         <v>- ffq_c_cordero</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>498</v>
       </c>
@@ -5440,7 +5462,7 @@
         <v>- ffq_c_conejo</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>499</v>
       </c>
@@ -5449,7 +5471,7 @@
         <v>- ffq_hamburguesa</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>500</v>
       </c>
@@ -5458,7 +5480,7 @@
         <v>- ffq_bacon</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>501</v>
       </c>
@@ -5467,7 +5489,7 @@
         <v>- ffq_higad</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>502</v>
       </c>
@@ -5476,7 +5498,7 @@
         <v>- ffq_visceras</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>503</v>
       </c>
@@ -5485,7 +5507,7 @@
         <v>- ffq_j_serrano</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>504</v>
       </c>
@@ -5494,7 +5516,7 @@
         <v>- ffq_j_cocido</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>505</v>
       </c>
@@ -5503,7 +5525,7 @@
         <v>- ffq_otros_embutidos</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>506</v>
       </c>
@@ -5512,7 +5534,7 @@
         <v>- ffq_carnes_procesadas</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>507</v>
       </c>
@@ -5521,7 +5543,7 @@
         <v>- ffq_pates</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>508</v>
       </c>
@@ -5530,7 +5552,7 @@
         <v>- ffq_ac_oliva</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>509</v>
       </c>
@@ -5539,7 +5561,7 @@
         <v>- ffq_ac_olivavir</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>510</v>
       </c>
@@ -5548,7 +5570,7 @@
         <v>- ffq_ac_girasol</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>511</v>
       </c>
@@ -5557,7 +5579,7 @@
         <v>- ffq_ac_maiz</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>512</v>
       </c>
@@ -5566,7 +5588,7 @@
         <v>- ffq_aguacate</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>513</v>
       </c>
@@ -5575,7 +5597,7 @@
         <v>- ffq_aceitunas</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>514</v>
       </c>
@@ -5584,7 +5606,7 @@
         <v>- ffq_ac_mezcla</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>515</v>
       </c>
@@ -5593,7 +5615,7 @@
         <v>- ffq_margarinas</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>516</v>
       </c>
@@ -5602,7 +5624,7 @@
         <v>- ffq_mantequillas</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>517</v>
       </c>
@@ -5611,7 +5633,7 @@
         <v>- ffq_mantecacer</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>518</v>
       </c>
@@ -5620,7 +5642,7 @@
         <v>- ffq_g_maria</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>519</v>
       </c>
@@ -5629,7 +5651,7 @@
         <v>- ffq_g_integral</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>520</v>
       </c>
@@ -5638,7 +5660,7 @@
         <v>- ffq_g_sinazucar</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>521</v>
       </c>
@@ -5647,7 +5669,7 @@
         <v>- ffq_g_choco</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>522</v>
       </c>
@@ -5656,7 +5678,7 @@
         <v>- ffq_bizcocho</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>523</v>
       </c>
@@ -5665,7 +5687,7 @@
         <v>- ffq_croissant</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>524</v>
       </c>
@@ -5674,7 +5696,7 @@
         <v>- ffq_natilla</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>525</v>
       </c>
@@ -5683,7 +5705,7 @@
         <v>- ffq_pastel</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>526</v>
       </c>
@@ -5692,7 +5714,7 @@
         <v>- ffq_churro</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>527</v>
       </c>
@@ -5701,7 +5723,7 @@
         <v>- ffq_turrones</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>528</v>
       </c>
@@ -5710,7 +5732,7 @@
         <v>- ffq_chocolate_negro</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>529</v>
       </c>
@@ -5719,7 +5741,7 @@
         <v>- ffq_chocolates</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>530</v>
       </c>
@@ -5728,7 +5750,7 @@
         <v>- ffq_cacao</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>531</v>
       </c>
@@ -5737,7 +5759,7 @@
         <v>- ffq_croquetas</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>532</v>
       </c>
@@ -5746,7 +5768,7 @@
         <v>- ffq_sopasobre</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>533</v>
       </c>
@@ -5755,7 +5777,7 @@
         <v>- ffq_mostaz</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>534</v>
       </c>
@@ -5764,7 +5786,7 @@
         <v>- ffq_mayones</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>535</v>
       </c>
@@ -5773,7 +5795,7 @@
         <v>- ffq_tomatefri</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>536</v>
       </c>
@@ -5782,7 +5804,7 @@
         <v>- ffq_sal</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>537</v>
       </c>
@@ -5791,7 +5813,7 @@
         <v>- ffq_mermeladas</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>538</v>
       </c>
@@ -5800,7 +5822,7 @@
         <v>- ffq_mieles</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>539</v>
       </c>
@@ -5809,7 +5831,7 @@
         <v>- ffq_azuc</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>540</v>
       </c>
@@ -5818,7 +5840,7 @@
         <v>- ffq_edulcorantes</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>541</v>
       </c>
@@ -5827,7 +5849,7 @@
         <v>- ffq_perejil</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>542</v>
       </c>
@@ -5836,7 +5858,7 @@
         <v>- ffq_picante</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>543</v>
       </c>
@@ -5845,7 +5867,7 @@
         <v>- ffq_p_fritascom</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>544</v>
       </c>
@@ -5854,7 +5876,7 @@
         <v>- ffq_snack</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>545</v>
       </c>
@@ -5863,7 +5885,7 @@
         <v>- ffq_tortitas</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>546</v>
       </c>
@@ -5872,7 +5894,7 @@
         <v>- ffq_pizzas</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>547</v>
       </c>
@@ -5881,7 +5903,7 @@
         <v>- ffq_agua</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>548</v>
       </c>
@@ -5890,7 +5912,7 @@
         <v>- ffq_infusiones</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>549</v>
       </c>
@@ -5899,7 +5921,7 @@
         <v>- ffq_refrescos</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>550</v>
       </c>
@@ -5908,7 +5930,7 @@
         <v>- ffq_refrescsin</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>551</v>
       </c>
@@ -5917,7 +5939,7 @@
         <v>- ffq_bebida_energetica</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>552</v>
       </c>
@@ -5926,7 +5948,7 @@
         <v>- ffq_z_natural</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>553</v>
       </c>
@@ -5935,7 +5957,7 @@
         <v>- ffq_z_frutasnat</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>554</v>
       </c>
@@ -5944,7 +5966,7 @@
         <v>- ffq_z_botella</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>555</v>
       </c>
@@ -5953,7 +5975,7 @@
         <v>- ffq_cafedesc</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>556</v>
       </c>
@@ -5962,7 +5984,7 @@
         <v>- ffq_cafes</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>557</v>
       </c>
@@ -5971,7 +5993,7 @@
         <v>- ffq_te</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>558</v>
       </c>
@@ -5980,7 +6002,7 @@
         <v>- ffq_v_tintojov</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>559</v>
       </c>
@@ -5989,7 +6011,7 @@
         <v>- ffq_v_tintoañej</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>560</v>
       </c>
@@ -5998,7 +6020,7 @@
         <v>- ffq_v_blanco</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>561</v>
       </c>
@@ -6007,7 +6029,7 @@
         <v>- ffq_v_rosado</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>562</v>
       </c>
@@ -6016,7 +6038,7 @@
         <v>- ffq_cavas</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>563</v>
       </c>
@@ -6025,7 +6047,7 @@
         <v>- ffq_cervezas</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>564</v>
       </c>
@@ -6034,7 +6056,7 @@
         <v>- ffq_cerveza_sin</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>565</v>
       </c>
@@ -6043,7 +6065,7 @@
         <v>- ffq_licores</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>566</v>
       </c>
@@ -6052,7 +6074,7 @@
         <v>- ffq_whisky</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>567</v>
       </c>
@@ -6061,7 +6083,7 @@
         <v>- ffq_hc</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>568</v>
       </c>
@@ -6070,7 +6092,7 @@
         <v>- ffq_prot</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>569</v>
       </c>
@@ -6079,7 +6101,7 @@
         <v>- ffq_protanim</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>570</v>
       </c>
@@ -6088,7 +6110,7 @@
         <v>- ffq_protveg</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>571</v>
       </c>
@@ -6097,7 +6119,7 @@
         <v>- ffq_grasa</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>572</v>
       </c>
@@ -6106,7 +6128,7 @@
         <v>- ffq_alcohol</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>573</v>
       </c>
@@ -6115,7 +6137,7 @@
         <v>- ffq_energiatot</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>574</v>
       </c>
@@ -6124,7 +6146,7 @@
         <v>- ffq_ags</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>575</v>
       </c>
@@ -6133,7 +6155,7 @@
         <v>- ffq_agm</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>576</v>
       </c>
@@ -6142,7 +6164,7 @@
         <v>- ffq_agp</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>577</v>
       </c>
@@ -6151,7 +6173,7 @@
         <v>- ffq_colesterol</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>578</v>
       </c>
@@ -6160,7 +6182,7 @@
         <v>- ffq_azucares</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>579</v>
       </c>
@@ -6169,7 +6191,7 @@
         <v>- ffq_fibra</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>580</v>
       </c>
@@ -6178,7 +6200,7 @@
         <v>- ffq_polisacaridos</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>581</v>
       </c>
@@ -6187,7 +6209,7 @@
         <v>- ffq_na</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>582</v>
       </c>
@@ -6196,7 +6218,7 @@
         <v>- ffq_k</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>583</v>
       </c>
@@ -6205,7 +6227,7 @@
         <v>- ffq_ca</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>584</v>
       </c>
@@ -6214,7 +6236,7 @@
         <v>- ffq_mg</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>585</v>
       </c>
@@ -6223,7 +6245,7 @@
         <v>- ffq_p</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>586</v>
       </c>
@@ -6232,7 +6254,7 @@
         <v>- ffq_fe</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>587</v>
       </c>
@@ -6241,7 +6263,7 @@
         <v>- ffq_zn</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>588</v>
       </c>
@@ -6250,7 +6272,7 @@
         <v>- ffq_vit_a</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>589</v>
       </c>
@@ -6259,7 +6281,7 @@
         <v>- ffq_retinoides</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>590</v>
       </c>
@@ -6268,7 +6290,7 @@
         <v>- ffq_carotenoides</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>591</v>
       </c>
@@ -6277,7 +6299,7 @@
         <v>- ffq_vit_d</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>592</v>
       </c>
@@ -6286,7 +6308,7 @@
         <v>- ffq_vit_e</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>593</v>
       </c>
@@ -6295,7 +6317,7 @@
         <v>- ffq_vit_b1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>594</v>
       </c>
@@ -6304,7 +6326,7 @@
         <v>- ffq_vit_b2</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>595</v>
       </c>
@@ -6313,7 +6335,7 @@
         <v>- ffq_vit_b3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>596</v>
       </c>
@@ -6322,7 +6344,7 @@
         <v>- ffq_vit_b6</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>597</v>
       </c>
@@ -6331,7 +6353,7 @@
         <v>- ffq_vit_b9</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>598</v>
       </c>
@@ -6340,7 +6362,7 @@
         <v>- ffq_vit_b12</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>599</v>
       </c>
@@ -6349,324 +6371,324 @@
         <v>- ffq_vit_c</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C376" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- luteina</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C377" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- zeaxantina</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C378" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- betacriptoxantina</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C379" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- alfacaroteno</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C380" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- betacaroteno</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C381" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- licopeno</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C382" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- licopeno_5cis</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C383" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- licopeno_trans</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C384" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- FC_media</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C385" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- cintura_media</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C386" s="1" t="str">
         <f t="shared" si="5"/>
         <v>- cadera_media</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C387" s="1" t="str">
         <f t="shared" ref="C387:C411" si="6">"- "&amp;A387</f>
         <v>- cintura_cadera</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C388" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- homa_ir</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C389" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- fn_score</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C390" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- mortality_risk</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C391" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- phenoage</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C392" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- dif_crono_pheno</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C393" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- adherencia_lic</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C394" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- cv_percepcion_calidad_vida_100</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C395" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- cv_percepcion_salud_100</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C396" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- cv_physical_100</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C397" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- cv_psychological_100</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C398" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- cv_social_relationships_100</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C399" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- cv_enviroment_100</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C400" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- hads_score</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C401" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- pgh_latencia</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C402" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- horas_cama</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C403" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- pgh_por_eficiencia</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C404" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- pgh_eficiencia</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C405" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- pgh_perturbaciones</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C406" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- pgh_disfuncion_dia</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C407" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- pgh_duracion_sueño</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C408" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- pgh_total</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C409" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- cat_pgh_total</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C410" s="1" t="str">
         <f t="shared" si="6"/>
         <v>- plaquetas</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C411" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6674,13 +6696,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A411" xr:uid="{166F06B2-CCC4-458B-AB48-916FB3B91EA2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="albumina_orina"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A411" xr:uid="{166F06B2-CCC4-458B-AB48-916FB3B91EA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6705,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6726,7 +6742,7 @@
         <v>- edad</v>
       </c>
       <c r="D3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7964,7 +7980,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C141" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7973,7 +7989,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C142" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7982,7 +7998,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C143" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7991,7 +8007,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C144" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8000,7 +8016,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C145" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8009,7 +8025,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C146" s="1" t="str">
         <f t="shared" si="2"/>
@@ -8024,10 +8040,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05DF8D6-FC28-42E3-A215-A4BF25D82B23}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8046,10 +8062,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F1" t="s">
         <v>679</v>
-      </c>
-      <c r="F1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8067,12 +8083,12 @@
         <v>- f_nac</v>
       </c>
       <c r="F2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -8162,12 +8178,12 @@
         <v>278</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>- num_depo</v>
       </c>
       <c r="E11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8196,7 +8212,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>603</v>
@@ -8226,7 +8242,7 @@
         <v>- tom_aceite</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>606</v>
@@ -8236,7 +8252,7 @@
         <v>- tom_crudo</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>607</v>
@@ -8246,7 +8262,7 @@
         <v>- tom_cocido</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>608</v>
@@ -8256,7 +8272,7 @@
         <v>- tom_sofrito</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>609</v>
@@ -8266,7 +8282,7 @@
         <v>- tom_horno</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>610</v>
@@ -8276,7 +8292,7 @@
         <v>- tom_micro</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>611</v>
@@ -8286,7 +8302,7 @@
         <v>- tom_fa</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>612</v>
@@ -8296,7 +8312,7 @@
         <v>- tom_otro</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>613</v>
@@ -8306,7 +8322,7 @@
         <v>- tom_no</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>614</v>
@@ -8316,31 +8332,31 @@
         <v>- tom_completo</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- g_dia_tom</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- mg_dia_licopeno</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>150</v>
@@ -8349,8 +8365,12 @@
         <f t="shared" si="0"/>
         <v>- hemoglobina_orina</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f>"'"&amp;B28&amp;"'"</f>
+        <v>'hemoglobina_orina'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>151</v>
@@ -8359,8 +8379,12 @@
         <f t="shared" si="0"/>
         <v>- leucocitos_orina</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f>F28&amp;",'"&amp;B29&amp;"'"</f>
+        <v>'hemoglobina_orina','leucocitos_orina'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>152</v>
@@ -8369,8 +8393,12 @@
         <f t="shared" si="0"/>
         <v>- nitritos_orina</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" ref="F30:F43" si="1">F29&amp;",'"&amp;B30&amp;"'"</f>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>153</v>
@@ -8379,8 +8407,12 @@
         <f t="shared" si="0"/>
         <v>- albumina_orina</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>154</v>
@@ -8389,8 +8421,12 @@
         <f t="shared" si="0"/>
         <v>- bilirrubina_orina</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>155</v>
@@ -8399,8 +8435,12 @@
         <f t="shared" si="0"/>
         <v>- cetonas_orina</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>156</v>
@@ -8409,8 +8449,12 @@
         <f t="shared" si="0"/>
         <v>- urobilinogeno_orina</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>157</v>
@@ -8419,8 +8463,12 @@
         <f t="shared" si="0"/>
         <v>- glucosa_orina</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>158</v>
@@ -8429,8 +8477,12 @@
         <f t="shared" si="0"/>
         <v>- hematies_sed</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>159</v>
@@ -8439,8 +8491,12 @@
         <f t="shared" si="0"/>
         <v>- leucocitos_sed</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>160</v>
@@ -8449,8 +8505,12 @@
         <f t="shared" si="0"/>
         <v>- bacterias_sed</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>161</v>
@@ -8459,8 +8519,12 @@
         <f t="shared" si="0"/>
         <v>- celulas_epiteliales_sed</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed','celulas_epiteliales_sed'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>162</v>
@@ -8469,8 +8533,12 @@
         <f t="shared" si="0"/>
         <v>- cilindros_hialinos_sed</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed','celulas_epiteliales_sed','cilindros_hialinos_sed'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>163</v>
@@ -8479,8 +8547,12 @@
         <f t="shared" si="0"/>
         <v>- precipitados_urat_sed</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed','celulas_epiteliales_sed','cilindros_hialinos_sed','precipitados_urat_sed'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>164</v>
@@ -8489,8 +8561,12 @@
         <f t="shared" si="0"/>
         <v>- oxalato_calcico_sed</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed','celulas_epiteliales_sed','cilindros_hialinos_sed','precipitados_urat_sed','oxalato_calcico_sed'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>165</v>
@@ -8498,6 +8574,15 @@
       <c r="D43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- fibra_mucoide_sed</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed','celulas_epiteliales_sed','cilindros_hialinos_sed','precipitados_urat_sed','oxalato_calcico_sed','fibra_mucoide_sed'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -8533,7 +8618,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E1" t="s">
         <v>417</v>
@@ -8560,7 +8645,7 @@
         <v>- cv_p2</v>
       </c>
       <c r="E3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8835,7 +8920,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8844,7 +8929,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8853,7 +8938,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8862,7 +8947,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8871,7 +8956,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8880,7 +8965,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8889,7 +8974,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8898,7 +8983,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8931,12 +9016,12 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>"- "&amp;B2</f>
@@ -8945,10 +9030,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D8" si="0">"- "&amp;B3</f>
@@ -8958,7 +9043,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8968,7 +9053,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8978,7 +9063,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8988,7 +9073,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8998,7 +9083,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Support Files/Tratamiento a Variables.xlsx
+++ b/Support Files/Tratamiento a Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E2330C-F601-4F1A-A80D-997B874E78E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB06F04-0EA0-401B-8C99-422B6748BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
+    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Replicar" sheetId="1" r:id="rId1"/>
@@ -2206,7 +2206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2223,6 +2223,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2234,16 +2237,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2579,6 +2572,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A322F21-957E-4C7E-B617-4712CBC54C89}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2978,6 +2974,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166F06B2-CCC4-458B-AB48-916FB3B91EA2}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:E411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6704,10 +6703,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E1C12-CC63-4020-82EE-914F0329F21F}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8040,9 +8042,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05DF8D6-FC28-42E3-A215-A4BF25D82B23}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -8087,7 +8092,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>682</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8099,7 +8104,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
@@ -8109,7 +8114,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>79</v>
       </c>
@@ -8119,7 +8124,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>88</v>
       </c>
@@ -8129,7 +8134,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>97</v>
       </c>
@@ -8139,7 +8144,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
@@ -8149,7 +8154,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -8161,7 +8166,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>275</v>
       </c>
@@ -8171,14 +8176,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>- num_depo</v>
       </c>
@@ -8211,7 +8215,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>684</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -8223,7 +8227,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>604</v>
       </c>
@@ -8233,7 +8237,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>605</v>
       </c>
@@ -8243,7 +8247,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>606</v>
       </c>
@@ -8253,7 +8257,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>607</v>
       </c>
@@ -8263,7 +8267,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>608</v>
       </c>
@@ -8273,7 +8277,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>609</v>
       </c>
@@ -8283,7 +8287,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>610</v>
       </c>
@@ -8293,7 +8297,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>611</v>
       </c>
@@ -8303,7 +8307,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>612</v>
       </c>
@@ -8313,7 +8317,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>613</v>
       </c>
@@ -8323,7 +8327,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>614</v>
       </c>
@@ -8333,7 +8337,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>617</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -8345,7 +8349,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>616</v>
       </c>
@@ -8355,7 +8359,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>676</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -8371,7 +8375,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>151</v>
       </c>
@@ -8385,7 +8389,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
         <v>152</v>
       </c>
@@ -8399,7 +8403,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3" t="s">
         <v>153</v>
       </c>
@@ -8413,7 +8417,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>154</v>
       </c>
@@ -8427,7 +8431,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3" t="s">
         <v>155</v>
       </c>
@@ -8441,7 +8445,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3" t="s">
         <v>156</v>
       </c>
@@ -8455,7 +8459,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>157</v>
       </c>
@@ -8469,7 +8473,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3" t="s">
         <v>158</v>
       </c>
@@ -8483,7 +8487,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3" t="s">
         <v>159</v>
       </c>
@@ -8497,7 +8501,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3" t="s">
         <v>160</v>
       </c>
@@ -8511,7 +8515,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3" t="s">
         <v>161</v>
       </c>
@@ -8525,7 +8529,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3" t="s">
         <v>162</v>
       </c>
@@ -8539,7 +8543,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>163</v>
       </c>
@@ -8553,7 +8557,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3" t="s">
         <v>164</v>
       </c>
@@ -8567,7 +8571,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>165</v>
       </c>
@@ -8604,7 +8608,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9000,8 +9004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900485D4-818E-4B40-BC12-882E64011581}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9029,7 +9033,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>648</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9041,7 +9045,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>643</v>
       </c>
@@ -9051,7 +9055,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>644</v>
       </c>
@@ -9061,7 +9065,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>645</v>
       </c>
@@ -9071,7 +9075,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>646</v>
       </c>
@@ -9081,7 +9085,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>647</v>
       </c>

--- a/Support Files/Tratamiento a Variables.xlsx
+++ b/Support Files/Tratamiento a Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB06F04-0EA0-401B-8C99-422B6748BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2364F-32B6-4D26-A9AB-B669D11D4200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
+    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Replicar" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="688">
   <si>
     <t>frec_alcohol_audit</t>
   </si>
@@ -2134,6 +2134,12 @@
   </si>
   <si>
     <t>'hemoglobina_orina','leucocitos_orina','nitritos_orina','albumina_orina','bilirrubina_orina','cetonas_orina','urobilinogeno_orina','glucosa_orina','hematies_sed','leucocitos_sed','bacterias_sed','celulas_epiteliales_sed','cilindros_hialinos_sed','precipitados_urat_sed','oxalato_calcico_sed','fibra_mucoide_sed'</t>
+  </si>
+  <si>
+    <t>albumina_orina_num</t>
+  </si>
+  <si>
+    <t>La variable albumina_orina se repetía y a la numerica se renombró a albumina_orina_num</t>
   </si>
 </sst>
 </file>
@@ -2979,7 +2985,9 @@
   </sheetPr>
   <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3039,6 +3047,9 @@
         <f t="shared" si="0"/>
         <v>- creatinina</v>
       </c>
+      <c r="E5" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3402,11 +3413,11 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>686</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>- albumina_orina</v>
+        <v>- albumina_orina_num</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9004,7 +9015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900485D4-818E-4B40-BC12-882E64011581}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
